--- a/docs/results.xlsx
+++ b/docs/results.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Itay\IDEA Projects\gp-heuristic\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Itay\IdeaProjects\gp-heuristic\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18135" windowHeight="9570"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18135" windowHeight="9570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="scores" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <si>
     <t>Game</t>
   </si>
@@ -217,6 +217,9 @@
   </si>
   <si>
     <t>citadral</t>
+  </si>
+  <si>
+    <t>playout depth</t>
   </si>
 </sst>
 </file>
@@ -561,8 +564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30:G31"/>
+    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1380,10 +1383,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1391,20 +1394,26 @@
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>9</v>
       </c>
       <c r="B1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>80</v>
       </c>
       <c r="B2">
         <v>100</v>
+      </c>
+      <c r="C2">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
